--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1018.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1018.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.171950561949962</v>
+        <v>1.510597467422485</v>
       </c>
       <c r="B1">
-        <v>3.360073193287586</v>
+        <v>2.02187967300415</v>
       </c>
       <c r="C1">
-        <v>3.647788726070589</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>2.147222718366155</v>
+        <v>1.45405375957489</v>
       </c>
       <c r="E1">
-        <v>1.040378432168766</v>
+        <v>0.6595985293388367</v>
       </c>
     </row>
   </sheetData>
